--- a/MainTop/16.10.2024/таня_WB/спрос_16-10-2024 таня_месяц с 16-9-2024 по 16-10-2024_sorted.xlsx
+++ b/MainTop/16.10.2024/таня_WB/спрос_16-10-2024 таня_месяц с 16-9-2024 по 16-10-2024_sorted.xlsx
@@ -222,12 +222,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
